--- a/natmiOut/OldD7/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Pdgfra</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.4353069452247</v>
+        <v>53.435824</v>
       </c>
       <c r="H2">
-        <v>52.4353069452247</v>
+        <v>160.307472</v>
       </c>
       <c r="I2">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580867</v>
       </c>
       <c r="J2">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580868</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.05582868715851</v>
+        <v>3.535386</v>
       </c>
       <c r="N2">
-        <v>1.05582868715851</v>
+        <v>10.606158</v>
       </c>
       <c r="O2">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="P2">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="Q2">
-        <v>55.3627012927301</v>
+        <v>188.916264068064</v>
       </c>
       <c r="R2">
-        <v>55.3627012927301</v>
+        <v>1700.246376612576</v>
       </c>
       <c r="S2">
-        <v>0.004959521898810017</v>
+        <v>0.01602039756916276</v>
       </c>
       <c r="T2">
-        <v>0.004959521898810017</v>
+        <v>0.01602039756916275</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.4353069452247</v>
+        <v>53.435824</v>
       </c>
       <c r="H3">
-        <v>52.4353069452247</v>
+        <v>160.307472</v>
       </c>
       <c r="I3">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580867</v>
       </c>
       <c r="J3">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580868</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.84859951094</v>
+        <v>173.8189136666666</v>
       </c>
       <c r="N3">
-        <v>172.84859951094</v>
+        <v>521.456741</v>
       </c>
       <c r="O3">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268709</v>
       </c>
       <c r="P3">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268707</v>
       </c>
       <c r="Q3">
-        <v>9063.369370408356</v>
+        <v>9288.156878563193</v>
       </c>
       <c r="R3">
-        <v>9063.369370408356</v>
+        <v>83593.41190706876</v>
       </c>
       <c r="S3">
-        <v>0.81191809322799</v>
+        <v>0.7876503731077673</v>
       </c>
       <c r="T3">
-        <v>0.81191809322799</v>
+        <v>0.7876503731077673</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.4353069452247</v>
+        <v>53.435824</v>
       </c>
       <c r="H4">
-        <v>52.4353069452247</v>
+        <v>160.307472</v>
       </c>
       <c r="I4">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580867</v>
       </c>
       <c r="J4">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580868</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0687190950460245</v>
+        <v>0.06908833333333333</v>
       </c>
       <c r="N4">
-        <v>0.0687190950460245</v>
+        <v>0.207265</v>
       </c>
       <c r="O4">
-        <v>0.0003943654520197798</v>
+        <v>0.000388640093475982</v>
       </c>
       <c r="P4">
-        <v>0.0003943654520197798</v>
+        <v>0.0003886400934759819</v>
       </c>
       <c r="Q4">
-        <v>3.603306841736365</v>
+        <v>3.691792020453334</v>
       </c>
       <c r="R4">
-        <v>3.603306841736365</v>
+        <v>33.22612818408</v>
       </c>
       <c r="S4">
-        <v>0.0003227927606933828</v>
+        <v>0.0003130697941867846</v>
       </c>
       <c r="T4">
-        <v>0.0003227927606933828</v>
+        <v>0.0003130697941867845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.4353069452247</v>
+        <v>53.435824</v>
       </c>
       <c r="H5">
-        <v>52.4353069452247</v>
+        <v>160.307472</v>
       </c>
       <c r="I5">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580867</v>
       </c>
       <c r="J5">
-        <v>0.8185117612107484</v>
+        <v>0.8055519732580868</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.279172969883544</v>
+        <v>0.346056</v>
       </c>
       <c r="N5">
-        <v>0.279172969883544</v>
+        <v>1.038168</v>
       </c>
       <c r="O5">
-        <v>0.001602119096389315</v>
+        <v>0.001946656254378565</v>
       </c>
       <c r="P5">
-        <v>0.001602119096389315</v>
+        <v>0.001946656254378564</v>
       </c>
       <c r="Q5">
-        <v>14.6385203666536</v>
+        <v>18.491787510144</v>
       </c>
       <c r="R5">
-        <v>14.6385203666536</v>
+        <v>166.426087591296</v>
       </c>
       <c r="S5">
-        <v>0.001311353323254991</v>
+        <v>0.001568132786969849</v>
       </c>
       <c r="T5">
-        <v>0.001311353323254991</v>
+        <v>0.001568132786969849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -782,49 +782,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>9.63023174048462</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H6">
-        <v>9.63023174048462</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I6">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998614</v>
       </c>
       <c r="J6">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998615</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.05582868715851</v>
+        <v>3.535386</v>
       </c>
       <c r="N6">
-        <v>1.05582868715851</v>
+        <v>10.606158</v>
       </c>
       <c r="O6">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="P6">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="Q6">
-        <v>10.16787493558809</v>
+        <v>0.112109446984</v>
       </c>
       <c r="R6">
-        <v>10.16787493558809</v>
+        <v>1.008985022856</v>
       </c>
       <c r="S6">
-        <v>0.0009108623175876807</v>
+        <v>9.507058170997738E-06</v>
       </c>
       <c r="T6">
-        <v>0.0009108623175876807</v>
+        <v>9.507058170997737E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>9.63023174048462</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H7">
-        <v>9.63023174048462</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I7">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998614</v>
       </c>
       <c r="J7">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998615</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>172.84859951094</v>
+        <v>173.8189136666666</v>
       </c>
       <c r="N7">
-        <v>172.84859951094</v>
+        <v>521.456741</v>
       </c>
       <c r="O7">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268709</v>
       </c>
       <c r="P7">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268707</v>
       </c>
       <c r="Q7">
-        <v>1664.572069308569</v>
+        <v>5.511913631645776</v>
       </c>
       <c r="R7">
-        <v>1664.572069308569</v>
+        <v>49.60722268481199</v>
       </c>
       <c r="S7">
-        <v>0.1491163082204483</v>
+        <v>0.0004674189815337373</v>
       </c>
       <c r="T7">
-        <v>0.1491163082204483</v>
+        <v>0.0004674189815337373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>9.63023174048462</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H8">
-        <v>9.63023174048462</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I8">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998614</v>
       </c>
       <c r="J8">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998615</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0687190950460245</v>
+        <v>0.06908833333333333</v>
       </c>
       <c r="N8">
-        <v>0.0687190950460245</v>
+        <v>0.207265</v>
       </c>
       <c r="O8">
-        <v>0.0003943654520197798</v>
+        <v>0.000388640093475982</v>
       </c>
       <c r="P8">
-        <v>0.0003943654520197798</v>
+        <v>0.0003886400934759819</v>
       </c>
       <c r="Q8">
-        <v>0.6617808102896044</v>
+        <v>0.002190837108888889</v>
       </c>
       <c r="R8">
-        <v>0.6617808102896044</v>
+        <v>0.01971753398</v>
       </c>
       <c r="S8">
-        <v>5.92838922994265E-05</v>
+        <v>1.857864470632859E-07</v>
       </c>
       <c r="T8">
-        <v>5.92838922994265E-05</v>
+        <v>1.857864470632859E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>9.63023174048462</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H9">
-        <v>9.63023174048462</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I9">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998614</v>
       </c>
       <c r="J9">
-        <v>0.1503272966630278</v>
+        <v>0.0004780424103998615</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.279172969883544</v>
+        <v>0.346056</v>
       </c>
       <c r="N9">
-        <v>0.279172969883544</v>
+        <v>1.038168</v>
       </c>
       <c r="O9">
-        <v>0.001602119096389315</v>
+        <v>0.001946656254378565</v>
       </c>
       <c r="P9">
-        <v>0.001602119096389315</v>
+        <v>0.001946656254378564</v>
       </c>
       <c r="Q9">
-        <v>2.688500395657862</v>
+        <v>0.010973666464</v>
       </c>
       <c r="R9">
-        <v>2.688500395657862</v>
+        <v>0.098762998176</v>
       </c>
       <c r="S9">
-        <v>0.0002408422326924186</v>
+        <v>9.305842480630949E-07</v>
       </c>
       <c r="T9">
-        <v>0.0002408422326924186</v>
+        <v>9.305842480630948E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.9962249078425</v>
+        <v>10.73549533333333</v>
       </c>
       <c r="H10">
-        <v>1.9962249078425</v>
+        <v>32.206486</v>
       </c>
       <c r="I10">
-        <v>0.03116094212622382</v>
+        <v>0.1618389837063174</v>
       </c>
       <c r="J10">
-        <v>0.03116094212622382</v>
+        <v>0.1618389837063175</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.05582868715851</v>
+        <v>3.535386</v>
       </c>
       <c r="N10">
-        <v>1.05582868715851</v>
+        <v>10.606158</v>
       </c>
       <c r="O10">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="P10">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="Q10">
-        <v>2.107671523720465</v>
+        <v>37.954119904532</v>
       </c>
       <c r="R10">
-        <v>2.107671523720465</v>
+        <v>341.587079140788</v>
       </c>
       <c r="S10">
-        <v>0.0001888102067512835</v>
+        <v>0.00321856931301165</v>
       </c>
       <c r="T10">
-        <v>0.0001888102067512835</v>
+        <v>0.003218569313011649</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.9962249078425</v>
+        <v>10.73549533333333</v>
       </c>
       <c r="H11">
-        <v>1.9962249078425</v>
+        <v>32.206486</v>
       </c>
       <c r="I11">
-        <v>0.03116094212622382</v>
+        <v>0.1618389837063174</v>
       </c>
       <c r="J11">
-        <v>0.03116094212622382</v>
+        <v>0.1618389837063175</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>172.84859951094</v>
+        <v>173.8189136666666</v>
       </c>
       <c r="N11">
-        <v>172.84859951094</v>
+        <v>521.456741</v>
       </c>
       <c r="O11">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268709</v>
       </c>
       <c r="P11">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268707</v>
       </c>
       <c r="Q11">
-        <v>345.0446796294314</v>
+        <v>1866.032136513569</v>
       </c>
       <c r="R11">
-        <v>345.0446796294314</v>
+        <v>16794.28922862212</v>
       </c>
       <c r="S11">
-        <v>0.03090991958000366</v>
+        <v>0.158242472405716</v>
       </c>
       <c r="T11">
-        <v>0.03090991958000366</v>
+        <v>0.1582424724057159</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.9962249078425</v>
+        <v>10.73549533333333</v>
       </c>
       <c r="H12">
-        <v>1.9962249078425</v>
+        <v>32.206486</v>
       </c>
       <c r="I12">
-        <v>0.03116094212622382</v>
+        <v>0.1618389837063174</v>
       </c>
       <c r="J12">
-        <v>0.03116094212622382</v>
+        <v>0.1618389837063175</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0687190950460245</v>
+        <v>0.06908833333333333</v>
       </c>
       <c r="N12">
-        <v>0.0687190950460245</v>
+        <v>0.207265</v>
       </c>
       <c r="O12">
-        <v>0.0003943654520197798</v>
+        <v>0.000388640093475982</v>
       </c>
       <c r="P12">
-        <v>0.0003943654520197798</v>
+        <v>0.0003886400934759819</v>
       </c>
       <c r="Q12">
-        <v>0.1371787691752702</v>
+        <v>0.7416974800877778</v>
       </c>
       <c r="R12">
-        <v>0.1371787691752702</v>
+        <v>6.675277320789999</v>
       </c>
       <c r="S12">
-        <v>1.228879902697045E-05</v>
+        <v>6.289711775568113E-05</v>
       </c>
       <c r="T12">
-        <v>1.228879902697045E-05</v>
+        <v>6.289711775568113E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.73549533333333</v>
+      </c>
+      <c r="H13">
+        <v>32.206486</v>
+      </c>
+      <c r="I13">
+        <v>0.1618389837063174</v>
+      </c>
+      <c r="J13">
+        <v>0.1618389837063175</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.346056</v>
+      </c>
+      <c r="N13">
+        <v>1.038168</v>
+      </c>
+      <c r="O13">
+        <v>0.001946656254378565</v>
+      </c>
+      <c r="P13">
+        <v>0.001946656254378564</v>
+      </c>
+      <c r="Q13">
+        <v>3.715082573071999</v>
+      </c>
+      <c r="R13">
+        <v>33.435743157648</v>
+      </c>
+      <c r="S13">
+        <v>0.0003150448698341735</v>
+      </c>
+      <c r="T13">
+        <v>0.0003150448698341735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.131391333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.394174</v>
+      </c>
+      <c r="I14">
+        <v>0.03213100062519576</v>
+      </c>
+      <c r="J14">
+        <v>0.03213100062519577</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.535386</v>
+      </c>
+      <c r="N14">
+        <v>10.606158</v>
+      </c>
+      <c r="O14">
+        <v>0.01988747852527457</v>
+      </c>
+      <c r="P14">
+        <v>0.01988747852527457</v>
+      </c>
+      <c r="Q14">
+        <v>7.535291080388</v>
+      </c>
+      <c r="R14">
+        <v>67.817619723492</v>
+      </c>
+      <c r="S14">
+        <v>0.0006390045849291647</v>
+      </c>
+      <c r="T14">
+        <v>0.0006390045849291645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.131391333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.394174</v>
+      </c>
+      <c r="I15">
+        <v>0.03213100062519576</v>
+      </c>
+      <c r="J15">
+        <v>0.03213100062519577</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>173.8189136666666</v>
+      </c>
+      <c r="N15">
+        <v>521.456741</v>
+      </c>
+      <c r="O15">
+        <v>0.9777772251268709</v>
+      </c>
+      <c r="P15">
+        <v>0.9777772251268707</v>
+      </c>
+      <c r="Q15">
+        <v>370.4761261585481</v>
+      </c>
+      <c r="R15">
+        <v>3334.285135426934</v>
+      </c>
+      <c r="S15">
+        <v>0.03141696063185367</v>
+      </c>
+      <c r="T15">
+        <v>0.03141696063185367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.9962249078425</v>
-      </c>
-      <c r="H13">
-        <v>1.9962249078425</v>
-      </c>
-      <c r="I13">
-        <v>0.03116094212622382</v>
-      </c>
-      <c r="J13">
-        <v>0.03116094212622382</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.279172969883544</v>
-      </c>
-      <c r="N13">
-        <v>0.279172969883544</v>
-      </c>
-      <c r="O13">
-        <v>0.001602119096389315</v>
-      </c>
-      <c r="P13">
-        <v>0.001602119096389315</v>
-      </c>
-      <c r="Q13">
-        <v>0.5572920360778947</v>
-      </c>
-      <c r="R13">
-        <v>0.5572920360778947</v>
-      </c>
-      <c r="S13">
-        <v>4.992354044190543E-05</v>
-      </c>
-      <c r="T13">
-        <v>4.992354044190543E-05</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.131391333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.394174</v>
+      </c>
+      <c r="I16">
+        <v>0.03213100062519576</v>
+      </c>
+      <c r="J16">
+        <v>0.03213100062519577</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.06908833333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.207265</v>
+      </c>
+      <c r="O16">
+        <v>0.000388640093475982</v>
+      </c>
+      <c r="P16">
+        <v>0.0003886400934759819</v>
+      </c>
+      <c r="Q16">
+        <v>0.1472542749011111</v>
+      </c>
+      <c r="R16">
+        <v>1.32528847411</v>
+      </c>
+      <c r="S16">
+        <v>1.248739508645292E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.248739508645292E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.131391333333333</v>
+      </c>
+      <c r="H17">
+        <v>6.394174</v>
+      </c>
+      <c r="I17">
+        <v>0.03213100062519576</v>
+      </c>
+      <c r="J17">
+        <v>0.03213100062519577</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.346056</v>
+      </c>
+      <c r="N17">
+        <v>1.038168</v>
+      </c>
+      <c r="O17">
+        <v>0.001946656254378565</v>
+      </c>
+      <c r="P17">
+        <v>0.001946656254378564</v>
+      </c>
+      <c r="Q17">
+        <v>0.7375807592479999</v>
+      </c>
+      <c r="R17">
+        <v>6.638226833231999</v>
+      </c>
+      <c r="S17">
+        <v>6.25480133264789E-05</v>
+      </c>
+      <c r="T17">
+        <v>6.25480133264789E-05</v>
       </c>
     </row>
   </sheetData>
